--- a/data/full_data/eurex.xlsx
+++ b/data/full_data/eurex.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>CCP</t>
   </si>
@@ -26,9 +26,6 @@
     <t>clearning service</t>
   </si>
   <si>
-    <t>currency</t>
-  </si>
-  <si>
     <t>4.1.1</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
   </si>
   <si>
     <t>aggregated</t>
-  </si>
-  <si>
-    <t>EUR</t>
   </si>
   <si>
     <t>Q1-2018</t>
@@ -492,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,7 +494,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:29">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,837 +579,801 @@
       <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:29">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E2" t="n">
         <v>100000000</v>
       </c>
+      <c r="F2" t="s"/>
       <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
+      <c r="H2" t="n">
+        <v>3608240387</v>
+      </c>
       <c r="I2" t="n">
-        <v>3608240387</v>
-      </c>
-      <c r="J2" t="n">
         <v>4360009190.22</v>
       </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="n">
+      <c r="J2" t="s"/>
+      <c r="K2" t="n">
         <v>600000000</v>
       </c>
-      <c r="M2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="n">
+        <v>7216480774</v>
+      </c>
       <c r="N2" t="n">
-        <v>7216480774</v>
+        <v>265000000</v>
       </c>
       <c r="O2" t="n">
-        <v>265000000</v>
+        <v>3827019277.61</v>
       </c>
       <c r="P2" t="n">
-        <v>3827019277.61</v>
+        <v>2168355681.78</v>
       </c>
       <c r="Q2" t="n">
-        <v>2168355681.78</v>
+        <v>22314705478.57</v>
       </c>
       <c r="R2" t="n">
-        <v>22314705478.57</v>
+        <v>39048209109.25</v>
       </c>
       <c r="S2" t="n">
-        <v>39048209109.25</v>
+        <v>59143708808.05</v>
       </c>
       <c r="T2" t="n">
-        <v>59143708808.05</v>
+        <v>55631325441.16</v>
       </c>
       <c r="U2" t="n">
-        <v>55631325441.16</v>
+        <v>85</v>
       </c>
       <c r="V2" t="n">
-        <v>85</v>
-      </c>
-      <c r="W2" t="n">
         <v>151</v>
       </c>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s"/>
+      <c r="X2" t="n">
+        <v>545</v>
+      </c>
       <c r="Y2" t="n">
-        <v>545</v>
-      </c>
-      <c r="Z2" t="n">
         <v>195</v>
       </c>
+      <c r="Z2" t="s"/>
       <c r="AA2" t="s"/>
       <c r="AB2" t="s"/>
       <c r="AC2" t="s"/>
-      <c r="AD2" t="s"/>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:29">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E3" t="n">
         <v>150000000</v>
       </c>
+      <c r="F3" t="s"/>
       <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
+      <c r="H3" t="n">
+        <v>3147579153</v>
+      </c>
       <c r="I3" t="n">
-        <v>3147579153</v>
-      </c>
-      <c r="J3" t="n">
         <v>4008404969.36</v>
       </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="n">
+      <c r="J3" t="s"/>
+      <c r="K3" t="n">
         <v>600000000</v>
       </c>
-      <c r="M3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="n">
+        <v>6295158306</v>
+      </c>
       <c r="N3" t="n">
-        <v>6295158306</v>
+        <v>315000000</v>
       </c>
       <c r="O3" t="n">
-        <v>315000000</v>
+        <v>3493142700.79</v>
       </c>
       <c r="P3" t="n">
-        <v>3493142700.79</v>
+        <v>2863011770.94</v>
       </c>
       <c r="Q3" t="n">
-        <v>2863011770.94</v>
+        <v>23161250968.49</v>
       </c>
       <c r="R3" t="n">
-        <v>23161250968.49</v>
+        <v>38258913474.55</v>
       </c>
       <c r="S3" t="n">
-        <v>38258913474.55</v>
+        <v>52351554815.49</v>
       </c>
       <c r="T3" t="n">
-        <v>52351554815.49</v>
+        <v>48951941453.30999</v>
       </c>
       <c r="U3" t="n">
-        <v>48951941453.30999</v>
+        <v>84</v>
       </c>
       <c r="V3" t="n">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="W3" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="Y3" t="n">
-        <v>531</v>
-      </c>
-      <c r="Z3" t="n">
         <v>189</v>
       </c>
+      <c r="Z3" t="s"/>
       <c r="AA3" t="s"/>
       <c r="AB3" t="s"/>
       <c r="AC3" t="s"/>
-      <c r="AD3" t="s"/>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:29">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="n">
+        <v>30</v>
+      </c>
+      <c r="E4" t="n">
         <v>150000000</v>
       </c>
+      <c r="F4" t="s"/>
       <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
+      <c r="H4" t="n">
+        <v>2872556533</v>
+      </c>
       <c r="I4" t="n">
-        <v>2872556533</v>
-      </c>
-      <c r="J4" t="n">
         <v>3834887570.62</v>
       </c>
-      <c r="K4" t="s"/>
-      <c r="L4" t="n">
+      <c r="J4" t="s"/>
+      <c r="K4" t="n">
         <v>600000000</v>
       </c>
-      <c r="M4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="n">
+        <v>5745113066</v>
+      </c>
       <c r="N4" t="n">
-        <v>5745113066</v>
+        <v>315000000</v>
       </c>
       <c r="O4" t="n">
-        <v>315000000</v>
+        <v>2877953679.04</v>
       </c>
       <c r="P4" t="n">
-        <v>2877953679.04</v>
+        <v>1962855221.61</v>
       </c>
       <c r="Q4" t="n">
-        <v>1962855221.61</v>
+        <v>31375878562.53</v>
       </c>
       <c r="R4" t="n">
-        <v>31375878562.53</v>
+        <v>46584259975.73</v>
       </c>
       <c r="S4" t="n">
-        <v>46584259975.73</v>
+        <v>60964737810.37796</v>
       </c>
       <c r="T4" t="n">
-        <v>60964737810.37796</v>
+        <v>57976720730.29408</v>
       </c>
       <c r="U4" t="n">
-        <v>57976720730.29408</v>
+        <v>87</v>
       </c>
       <c r="V4" t="n">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="W4" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>544</v>
       </c>
       <c r="Y4" t="n">
-        <v>544</v>
-      </c>
-      <c r="Z4" t="n">
         <v>200</v>
       </c>
+      <c r="Z4" t="s"/>
       <c r="AA4" t="s"/>
       <c r="AB4" t="s"/>
       <c r="AC4" t="s"/>
-      <c r="AD4" t="s"/>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:29">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E5" t="n">
         <v>150000000</v>
       </c>
+      <c r="F5" t="s"/>
       <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
+      <c r="H5" t="n">
+        <v>3516994538</v>
+      </c>
       <c r="I5" t="n">
-        <v>3516994538</v>
-      </c>
-      <c r="J5" t="n">
         <v>4367791953.67</v>
       </c>
-      <c r="K5" t="s"/>
-      <c r="L5" t="n">
+      <c r="J5" t="s"/>
+      <c r="K5" t="n">
         <v>600000000</v>
       </c>
-      <c r="M5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="n">
+        <v>7033989076</v>
+      </c>
       <c r="N5" t="n">
-        <v>7033989076</v>
+        <v>365000000</v>
       </c>
       <c r="O5" t="n">
-        <v>365000000</v>
+        <v>3368275132.72</v>
       </c>
       <c r="P5" t="n">
-        <v>3368275132.72</v>
+        <v>2806522890.19</v>
       </c>
       <c r="Q5" t="n">
-        <v>2806522890.19</v>
+        <v>24442260281.57</v>
       </c>
       <c r="R5" t="n">
-        <v>24442260281.57</v>
+        <v>37266422351.8</v>
       </c>
       <c r="S5" t="n">
-        <v>37266422351.8</v>
+        <v>52094277622.7</v>
       </c>
       <c r="T5" t="n">
-        <v>52094277622.7</v>
+        <v>48544508202.82999</v>
       </c>
       <c r="U5" t="n">
-        <v>48544508202.82999</v>
+        <v>85</v>
       </c>
       <c r="V5" t="n">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="W5" t="n">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="Y5" t="n">
-        <v>546</v>
-      </c>
-      <c r="Z5" t="n">
         <v>193</v>
       </c>
+      <c r="Z5" t="s"/>
       <c r="AA5" t="s"/>
       <c r="AB5" t="s"/>
       <c r="AC5" t="s"/>
-      <c r="AD5" t="s"/>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:29">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="n">
+        <v>30</v>
+      </c>
+      <c r="E6" t="n">
         <v>150000000</v>
       </c>
+      <c r="F6" t="s"/>
       <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
+      <c r="H6" t="n">
+        <v>3661855523</v>
+      </c>
       <c r="I6" t="n">
-        <v>3661855523</v>
-      </c>
-      <c r="J6" t="n">
         <v>4343644916.66</v>
       </c>
-      <c r="K6" t="s"/>
-      <c r="L6" t="n">
+      <c r="J6" t="s"/>
+      <c r="K6" t="n">
         <v>600000000</v>
       </c>
-      <c r="M6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="n">
+        <v>7323711046</v>
+      </c>
       <c r="N6" t="n">
-        <v>7323711046</v>
+        <v>315000000</v>
       </c>
       <c r="O6" t="n">
-        <v>315000000</v>
+        <v>3493142700.79</v>
       </c>
       <c r="P6" t="n">
-        <v>3493142700.79</v>
+        <v>2522900642.03</v>
       </c>
       <c r="Q6" t="n">
-        <v>2522900642.03</v>
+        <v>24485362969.27</v>
       </c>
       <c r="R6" t="n">
-        <v>24485362969.27</v>
+        <v>38849095700.82</v>
       </c>
       <c r="S6" t="n">
-        <v>38849095700.82</v>
+        <v>52123546433.46</v>
       </c>
       <c r="T6" t="n">
-        <v>52123546433.46</v>
+        <v>48655346961.9</v>
       </c>
       <c r="U6" t="n">
-        <v>48655346961.9</v>
+        <v>85</v>
       </c>
       <c r="V6" t="n">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="W6" t="n">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>547</v>
       </c>
       <c r="Y6" t="n">
-        <v>547</v>
-      </c>
-      <c r="Z6" t="n">
         <v>198</v>
       </c>
+      <c r="Z6" t="s"/>
       <c r="AA6" t="s"/>
       <c r="AB6" t="s"/>
       <c r="AC6" t="s"/>
-      <c r="AD6" t="s"/>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:29">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="n">
+        <v>30</v>
+      </c>
+      <c r="E7" t="n">
         <v>150000000</v>
       </c>
+      <c r="F7" t="s"/>
       <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
+      <c r="H7" t="n">
+        <v>3035824196</v>
+      </c>
       <c r="I7" t="n">
-        <v>3035824196</v>
-      </c>
-      <c r="J7" t="n">
         <v>4147136594.8</v>
       </c>
-      <c r="K7" t="s"/>
-      <c r="L7" t="n">
+      <c r="J7" t="s"/>
+      <c r="K7" t="n">
         <v>600000000</v>
       </c>
-      <c r="M7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="n">
+        <v>6071648392</v>
+      </c>
       <c r="N7" t="n">
-        <v>6071648392</v>
+        <v>315000000</v>
       </c>
       <c r="O7" t="n">
-        <v>315000000</v>
+        <v>3493142700.79</v>
       </c>
       <c r="P7" t="n">
-        <v>3493142700.79</v>
+        <v>2819264645.73</v>
       </c>
       <c r="Q7" t="n">
-        <v>2819264645.73</v>
+        <v>24914363927.25</v>
       </c>
       <c r="R7" t="n">
-        <v>24914363927.25</v>
+        <v>38840102862.73</v>
       </c>
       <c r="S7" t="n">
-        <v>38840102862.73</v>
+        <v>49993999738.71999</v>
       </c>
       <c r="T7" t="n">
-        <v>49993999738.71999</v>
+        <v>46709190447.25999</v>
       </c>
       <c r="U7" t="n">
-        <v>46709190447.25999</v>
+        <v>85</v>
       </c>
       <c r="V7" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="W7" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="Y7" t="n">
-        <v>550</v>
-      </c>
-      <c r="Z7" t="n">
         <v>196</v>
       </c>
+      <c r="Z7" t="s"/>
       <c r="AA7" t="s"/>
       <c r="AB7" t="s"/>
       <c r="AC7" t="s"/>
-      <c r="AD7" t="s"/>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:29">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="n">
+        <v>30</v>
+      </c>
+      <c r="E8" t="n">
         <v>50000000</v>
       </c>
+      <c r="F8" t="s"/>
       <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
+      <c r="H8" t="n">
+        <v>3706328983</v>
+      </c>
       <c r="I8" t="n">
-        <v>3706328983</v>
-      </c>
-      <c r="J8" t="n">
         <v>4338012805.44</v>
       </c>
-      <c r="K8" t="s"/>
-      <c r="L8" t="n">
+      <c r="J8" t="s"/>
+      <c r="K8" t="n">
         <v>700000000</v>
       </c>
-      <c r="M8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="n">
+        <v>7412657966</v>
+      </c>
       <c r="N8" t="n">
-        <v>7412657966</v>
+        <v>265000000</v>
       </c>
       <c r="O8" t="n">
-        <v>265000000</v>
+        <v>3827019277.61</v>
       </c>
       <c r="P8" t="n">
-        <v>3827019277.61</v>
+        <v>2495777393.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2495777393.5</v>
+        <v>20652766422.7</v>
       </c>
       <c r="R8" t="n">
-        <v>20652766422.7</v>
+        <v>37436486079.47</v>
       </c>
       <c r="S8" t="n">
-        <v>37436486079.47</v>
+        <v>57744238249.52</v>
       </c>
       <c r="T8" t="n">
-        <v>57744238249.52</v>
+        <v>54191325565.14</v>
       </c>
       <c r="U8" t="n">
-        <v>54191325565.14</v>
+        <v>81</v>
       </c>
       <c r="V8" t="n">
-        <v>81</v>
-      </c>
-      <c r="W8" t="n">
         <v>149</v>
       </c>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s"/>
+      <c r="X8" t="n">
+        <v>526</v>
+      </c>
       <c r="Y8" t="n">
-        <v>526</v>
-      </c>
-      <c r="Z8" t="n">
         <v>193</v>
       </c>
+      <c r="Z8" t="s"/>
       <c r="AA8" t="s"/>
       <c r="AB8" t="s"/>
       <c r="AC8" t="s"/>
-      <c r="AD8" t="s"/>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:29">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E9" t="n">
         <v>100000000</v>
       </c>
+      <c r="F9" t="s"/>
       <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
+      <c r="H9" t="n">
+        <v>3265194953</v>
+      </c>
       <c r="I9" t="n">
-        <v>3265194953</v>
-      </c>
-      <c r="J9" t="n">
         <v>4230653974.719864</v>
       </c>
-      <c r="K9" t="s"/>
-      <c r="L9" t="n">
+      <c r="J9" t="s"/>
+      <c r="K9" t="n">
         <v>600000000</v>
       </c>
-      <c r="M9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="n">
+        <v>6530389906</v>
+      </c>
       <c r="N9" t="n">
-        <v>6530389906</v>
+        <v>265000000</v>
       </c>
       <c r="O9" t="n">
-        <v>265000000</v>
+        <v>3414286407.02626</v>
       </c>
       <c r="P9" t="n">
-        <v>3414286407.02626</v>
+        <v>1876189936.468167</v>
       </c>
       <c r="Q9" t="n">
-        <v>1876189936.468167</v>
+        <v>20501782217.9687</v>
       </c>
       <c r="R9" t="n">
-        <v>20501782217.9687</v>
+        <v>34456021519.95277</v>
       </c>
       <c r="S9" t="n">
-        <v>34456021519.95277</v>
+        <v>52630200639.20496</v>
       </c>
       <c r="T9" t="n">
-        <v>52630200639.20496</v>
+        <v>49743960954.11151</v>
       </c>
       <c r="U9" t="n">
-        <v>49743960954.11151</v>
+        <v>85</v>
       </c>
       <c r="V9" t="n">
-        <v>85</v>
-      </c>
-      <c r="W9" t="n">
         <v>153</v>
       </c>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s"/>
+      <c r="X9" t="n">
+        <v>543</v>
+      </c>
       <c r="Y9" t="n">
-        <v>543</v>
-      </c>
-      <c r="Z9" t="n">
         <v>196</v>
       </c>
+      <c r="Z9" t="s"/>
       <c r="AA9" t="s"/>
       <c r="AB9" t="s"/>
       <c r="AC9" t="s"/>
-      <c r="AD9" t="s"/>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:29">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="n">
+        <v>30</v>
+      </c>
+      <c r="E10" t="n">
         <v>50000000</v>
       </c>
+      <c r="F10" t="s"/>
       <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
+      <c r="H10" t="n">
+        <v>3809168471</v>
+      </c>
       <c r="I10" t="n">
-        <v>3809168471</v>
-      </c>
-      <c r="J10" t="n">
         <v>4361769277.97279</v>
       </c>
-      <c r="K10" t="s"/>
-      <c r="L10" t="n">
+      <c r="J10" t="s"/>
+      <c r="K10" t="n">
         <v>700000000</v>
       </c>
-      <c r="M10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="n">
+        <v>7618336942</v>
+      </c>
       <c r="N10" t="n">
-        <v>7618336942</v>
+        <v>265000000</v>
       </c>
       <c r="O10" t="n">
-        <v>265000000</v>
+        <v>3827019277.61</v>
       </c>
       <c r="P10" t="n">
-        <v>3827019277.61</v>
+        <v>2679489814</v>
       </c>
       <c r="Q10" t="n">
-        <v>2679489814</v>
+        <v>25036172858.43</v>
       </c>
       <c r="R10" t="n">
-        <v>25036172858.43</v>
+        <v>43091677165.47</v>
       </c>
       <c r="S10" t="n">
-        <v>43091677165.47</v>
+        <v>60486664577.06</v>
       </c>
       <c r="T10" t="n">
-        <v>60486664577.06</v>
+        <v>56550412553.27</v>
       </c>
       <c r="U10" t="n">
-        <v>56550412553.27</v>
+        <v>78</v>
       </c>
       <c r="V10" t="n">
-        <v>78</v>
-      </c>
-      <c r="W10" t="n">
         <v>143</v>
       </c>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s"/>
+      <c r="X10" t="n">
+        <v>526</v>
+      </c>
       <c r="Y10" t="n">
-        <v>526</v>
-      </c>
-      <c r="Z10" t="n">
         <v>186</v>
       </c>
+      <c r="Z10" t="s"/>
       <c r="AA10" t="s"/>
       <c r="AB10" t="s"/>
       <c r="AC10" t="s"/>
-      <c r="AD10" t="s"/>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:29">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="n">
+        <v>30</v>
+      </c>
+      <c r="E11" t="n">
         <v>150000000</v>
       </c>
+      <c r="F11" t="s"/>
       <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
+      <c r="H11" t="n">
+        <v>3193111839</v>
+      </c>
       <c r="I11" t="n">
-        <v>3193111839</v>
-      </c>
-      <c r="J11" t="n">
         <v>4177965990.93</v>
       </c>
-      <c r="K11" t="s"/>
-      <c r="L11" t="n">
+      <c r="J11" t="s"/>
+      <c r="K11" t="n">
         <v>600000000</v>
       </c>
-      <c r="M11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="n">
+        <v>6386223678</v>
+      </c>
       <c r="N11" t="n">
-        <v>6386223678</v>
+        <v>315000000</v>
       </c>
       <c r="O11" t="n">
-        <v>315000000</v>
+        <v>3493142700.79</v>
       </c>
       <c r="P11" t="n">
-        <v>3493142700.79</v>
+        <v>2837838777.09</v>
       </c>
       <c r="Q11" t="n">
-        <v>2837838777.09</v>
+        <v>24293581475.42</v>
       </c>
       <c r="R11" t="n">
-        <v>24293581475.42</v>
+        <v>38211023503.4</v>
       </c>
       <c r="S11" t="n">
-        <v>38211023503.4</v>
+        <v>51337642350.48</v>
       </c>
       <c r="T11" t="n">
-        <v>51337642350.48</v>
+        <v>47912943184.09</v>
       </c>
       <c r="U11" t="n">
-        <v>47912943184.09</v>
+        <v>84</v>
       </c>
       <c r="V11" t="n">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="W11" t="n">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="Y11" t="n">
-        <v>535</v>
-      </c>
-      <c r="Z11" t="n">
         <v>190</v>
       </c>
+      <c r="Z11" t="s"/>
       <c r="AA11" t="s"/>
       <c r="AB11" t="s"/>
       <c r="AC11" t="s"/>
-      <c r="AD11" t="s"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:29">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="n">
+        <v>30</v>
+      </c>
+      <c r="E12" t="n">
         <v>100000000</v>
       </c>
+      <c r="F12" t="s"/>
       <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
+      <c r="H12" t="n">
+        <v>3002661730</v>
+      </c>
       <c r="I12" t="n">
-        <v>3002661730</v>
-      </c>
-      <c r="J12" t="n">
         <v>3963368182.677832</v>
       </c>
-      <c r="K12" t="s"/>
-      <c r="L12" t="n">
+      <c r="J12" t="s"/>
+      <c r="K12" t="n">
         <v>600000000</v>
       </c>
-      <c r="M12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="n">
+        <v>6005323460</v>
+      </c>
       <c r="N12" t="n">
-        <v>6005323460</v>
+        <v>265000000</v>
       </c>
       <c r="O12" t="n">
-        <v>265000000</v>
+        <v>3164468008.93385</v>
       </c>
       <c r="P12" t="n">
-        <v>3164468008.93385</v>
+        <v>1928253541.579052</v>
       </c>
       <c r="Q12" t="n">
-        <v>1928253541.579052</v>
+        <v>22206580943.66835</v>
       </c>
       <c r="R12" t="n">
-        <v>22206580943.66835</v>
+        <v>35787455944.14075</v>
       </c>
       <c r="S12" t="n">
-        <v>35787455944.14075</v>
+        <v>52158038588.12729</v>
       </c>
       <c r="T12" t="n">
-        <v>52158038588.12729</v>
+        <v>49431598313.8801</v>
       </c>
       <c r="U12" t="n">
-        <v>49431598313.8801</v>
+        <v>87</v>
       </c>
       <c r="V12" t="n">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="W12" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="Y12" t="n">
-        <v>553</v>
-      </c>
-      <c r="Z12" t="n">
         <v>200</v>
       </c>
+      <c r="Z12" t="s"/>
       <c r="AA12" t="s"/>
       <c r="AB12" t="s"/>
       <c r="AC12" t="s"/>
-      <c r="AD12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
